--- a/Rúbrica Evidencia 3 - BD.xlsx
+++ b/Rúbrica Evidencia 3 - BD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tareo\Semestre 4\BD\VS\Ev3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289858BF-7E88-408E-ABA8-7A4AE73AA18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC343934-6195-42AC-B2CF-AA10D97FEF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidencia 3" sheetId="1" r:id="rId1"/>
@@ -143,22 +143,17 @@
 Relación entre colecciones: Cada operador cuenta con dos o mas armas</t>
   </si>
   <si>
-    <t>Se pueden modificar que arma tiene un operador y se vera reflejado
-en el atributo de cuantos operadores tiene dicha arma. A su vez
-si se cambia el nombre de un arma se vera reflejado en el nombre
-de las armas disponibles de cualquier operador.</t>
-  </si>
-  <si>
-    <t>Si se borra un arma esta dejara de estar disponible para los
-operadores que la tenian registrada</t>
+    <t>Se puede actualizar cada atributo de las armas y los operadores</t>
+  </si>
+  <si>
+    <t>Se pueden eliminar armas y peliculas</t>
   </si>
   <si>
     <t>Base Maestra Rainbow Six es una base de datos del videojuego
 de mismo nombre que sirve para visualizar los datos de 
 cada personaje (operador) y sus armas. En esta se podran
 visualizar datos de los operadores como su vida, velocidad, 
-habilidades y herramientas disponibles, y de las armas, como su
-daño, presicion, cadencia de disparo, accesorios, etc.</t>
+habilidades y herramientas disponibles, y de las armas, como su daño, presicion, cadencia de disparo, etc.</t>
   </si>
 </sst>
 </file>
@@ -748,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +883,7 @@
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -916,7 +911,7 @@
       </c>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>22</v>
       </c>
